--- a/biology/Origine et évolution du vivant/Opisthokonta_(classification_phylogénétique)/Opisthokonta_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Opisthokonta_(classification_phylogénétique)/Opisthokonta_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Opisthokonta (Opisthocontes), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -567,7 +581,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,12 +599,49 @@
           <t>Débat scientifique relatif à la phylogénie des Opisthokonta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La monophylie du groupe n'est plus aujourd'hui remise en question. Mais la question de son groupe-frère n'est pas tranchée : les seuls Amoebozoa (pour former ensemble les Unikonta, groupe-frère à son tour des Bikonta), ou bien l'ensemble des Anterokonta (regroupant Amoebozoa et Bikonta) ?
 À la base de l'arbre des Opisthocontes, le grade des Mesomycetozoa (lato sensu), ou Choanozoa, est paraphylétique. Il regroupe des organismes que les phylogénies moléculaires ont révélé être proches parents, et qui auparavant étaient dispersés dans la classification des Protistes ou des Champignons, . Les Choanoflagellés en ont été détachés, comme étant plus proches des Animaux, puis les Nucleariida, plus proches des Champignons. 
-Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Opisthocontes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Opisthokonta</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Opisthocontes.
 Classification proposée par Adl et al. 2005
 ▲
 └─o Opisthokonta
@@ -613,41 +664,77 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques
-Matthew W. Brown, Frederick W. Spiegel et Jeffrey D. Silberman : « Phylogeny of the ‘‘Forgotten’’ Cellular Slime Mold, Fonticula alba, Reveals a Key Evolutionary Branch within Opisthokonta », Mol. Biol. Evol., vol. 26, n°12, 2009, pp. 2699-2709
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Opisthokonta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opisthokonta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Matthew W. Brown, Frederick W. Spiegel et Jeffrey D. Silberman : « Phylogeny of the ‘‘Forgotten’’ Cellular Slime Mold, Fonticula alba, Reveals a Key Evolutionary Branch within Opisthokonta », Mol. Biol. Evol., vol. 26, n°12, 2009, pp. 2699-2709
 M. Carr, B. S. C. Leadbeater, R. Hassan, M. Nelson et S. L. Baldauf : « Molecular phylogeny of choanoflagellates, the sister group to Metazoa », PNAS, vol. 105, n°43, 2008, pp. 16641-16646
 Kamran Shalchian-Tabrizi, Marianne A. Minge, Mari Espelund, Russell Orr, Torgeir Ruden, Kjetill S. Jakobsen, Thomas Cavalier-Smith : « Multigene Phylogeny of Choanozoa and the Origin of Animals », PLoS One, 3 (5), e2098, 2008
 Emma T. Steenkamp, Jane Wright et Sandra L. Baldauf : « The Protistan Origins of Animals and Fungi », Molecular Biology and Evolution, vol. 23, n°1, 2006, pp. 93-106
 Sina M. Adl et al. : « The New Higher Level Classification of Eukaryotes »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), J. Eukaryot. Microbiol., vol. 52, n°5, 2005, pp. 399–451 
-Roger A. Herr, Libero Ajello, John W. Taylor, Sarath N. Arseculeratne et Leonel Mendoza : « Phylogenetic Analysis of Rhinosporidium seeberi’s 18S Small-Subunit Ribosomal DNA Groups This Pathogen among Members of the Protoctistan Mesomycetozoa Clade », J. Clin. Microbiol., vol. 37, n° 9, 1999, pp. 2750–2754
-Sources internet</t>
+Roger A. Herr, Libero Ajello, John W. Taylor, Sarath N. Arseculeratne et Leonel Mendoza : « Phylogenetic Analysis of Rhinosporidium seeberi’s 18S Small-Subunit Ribosomal DNA Groups This Pathogen among Members of the Protoctistan Mesomycetozoa Clade », J. Clin. Microbiol., vol. 37, n° 9, 1999, pp. 2750–2754</t>
         </is>
       </c>
     </row>
